--- a/data/dividends_info_20260205.xlsx
+++ b/data/dividends_info_20260205.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.127999782562256</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="I2" t="n">
-        <v>3.100522303226269</v>
+        <v>3.220338930997381</v>
       </c>
       <c r="J2" t="n">
         <v>102</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19.89999961853027</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="I3" t="n">
-        <v>3.768844293351759</v>
+        <v>3.787878933834458</v>
       </c>
       <c r="J3" t="n">
         <v>88</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>24.33499908447266</v>
+        <v>24.60499954223633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3698376962644965</v>
+        <v>0.3657793199528748</v>
       </c>
       <c r="J4" t="n">
         <v>46</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>58.09999847412109</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="I5" t="n">
-        <v>1.118760786696962</v>
+        <v>1.136363621206702</v>
       </c>
       <c r="J5" t="n">
         <v>18</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.830000042915344</v>
+        <v>1.889999985694885</v>
       </c>
       <c r="I6" t="n">
-        <v>3.278688447701616</v>
+        <v>3.17460319863125</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.2049999982118607</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="I7" t="n">
-        <v>29.26829293822334</v>
+        <v>29.99999955296517</v>
       </c>
       <c r="J7" t="n">
         <v>-3</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9.529000282287598</v>
+        <v>9.486000061035156</v>
       </c>
       <c r="I8" t="n">
-        <v>2.413684470421535</v>
+        <v>2.424625748683596</v>
       </c>
       <c r="J8" t="n">
         <v>-17</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.938000202178955</v>
+        <v>5.955999851226807</v>
       </c>
       <c r="I9" t="n">
-        <v>2.03435493241769</v>
+        <v>2.028206900897048</v>
       </c>
       <c r="J9" t="n">
         <v>-17</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25.04999923706055</v>
+        <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.874251584546105</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
         <v>-27</v>
@@ -2791,7 +2791,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2801,14 +2801,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2818,14 +2818,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2886,14 +2886,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2961,7 +2961,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2995,7 +2995,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3012,7 +3012,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3029,7 +3029,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3039,14 +3039,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3063,7 +3063,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3073,14 +3073,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3090,14 +3090,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3107,14 +3107,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3124,14 +3124,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3141,14 +3141,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3260,14 +3260,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3301,7 +3301,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3362,14 +3362,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3386,7 +3386,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3396,14 +3396,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3437,7 +3437,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3447,14 +3447,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3464,14 +3464,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3481,14 +3481,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3498,14 +3498,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3582,100 +3582,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BANCA IFIS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OMER S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Redelfi S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>